--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,12 @@
       <c r="H2" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="I2" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -470,24 +476,30 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="F3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <v>6</v>
       </c>
     </row>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,9 +465,6 @@
       <c r="I2" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,28 +476,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="I3" s="1" t="n">
         <v>7</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,9 @@
       <c r="I2" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="J2" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,22 +482,25 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="F3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="H3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,31 +442,34 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -476,31 +479,34 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="I3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>5</v>
+      <c r="K3" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Output" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Atribuicoes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,12 +33,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -52,12 +66,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -129,6 +144,330 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>None</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </txPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <cat>
+            <numRef>
+              <f>Atribuicoes!$B$2:$K$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Atribuicoes!$B$3:$K$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="10"/>
+                <pt idx="0">
+                  <v>2</v>
+                </pt>
+                <pt idx="1">
+                  <v>4</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>1</v>
+                </pt>
+                <pt idx="4">
+                  <v>9</v>
+                </pt>
+                <pt idx="5">
+                  <v>7</v>
+                </pt>
+                <pt idx="6">
+                  <v>8</v>
+                </pt>
+                <pt idx="7">
+                  <v>5</v>
+                </pt>
+                <pt idx="8">
+                  <v>6</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <gapWidth val="219"/>
+        <overlap val="-27"/>
+        <axId val="511416656"/>
+        <axId val="1657517104"/>
+      </barChart>
+      <catAx>
+        <axId val="511416656"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1657517104"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="1657517104"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="511416656"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>441960</colOff>
+      <row>8</row>
+      <rowOff>179070</rowOff>
+    </from>
+    <to>
+      <col>20</col>
+      <colOff>137160</colOff>
+      <row>23</row>
+      <rowOff>179070</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,18 +754,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -441,34 +780,34 @@
           <t>Tarefas</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -478,38 +817,39 @@
           <t>Técnicos atribuídos</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1" t="n">
+      <c r="J3" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -2,14 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Atribuicoes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Atribuicoes" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -33,27 +35,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -66,13 +53,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -144,330 +130,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <cat>
-            <numRef>
-              <f>Atribuicoes!$B$2:$K$2</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="10"/>
-                <pt idx="0">
-                  <v>1</v>
-                </pt>
-                <pt idx="1">
-                  <v>2</v>
-                </pt>
-                <pt idx="2">
-                  <v>3</v>
-                </pt>
-                <pt idx="3">
-                  <v>4</v>
-                </pt>
-                <pt idx="4">
-                  <v>5</v>
-                </pt>
-                <pt idx="5">
-                  <v>6</v>
-                </pt>
-                <pt idx="6">
-                  <v>7</v>
-                </pt>
-                <pt idx="7">
-                  <v>8</v>
-                </pt>
-                <pt idx="8">
-                  <v>9</v>
-                </pt>
-                <pt idx="9">
-                  <v>10</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Atribuicoes!$B$3:$K$3</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="10"/>
-                <pt idx="0">
-                  <v>2</v>
-                </pt>
-                <pt idx="1">
-                  <v>4</v>
-                </pt>
-                <pt idx="2">
-                  <v>3</v>
-                </pt>
-                <pt idx="3">
-                  <v>1</v>
-                </pt>
-                <pt idx="4">
-                  <v>9</v>
-                </pt>
-                <pt idx="5">
-                  <v>7</v>
-                </pt>
-                <pt idx="6">
-                  <v>8</v>
-                </pt>
-                <pt idx="7">
-                  <v>5</v>
-                </pt>
-                <pt idx="8">
-                  <v>6</v>
-                </pt>
-                <pt idx="9">
-                  <v>10</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="219"/>
-        <overlap val="-27"/>
-        <axId val="511416656"/>
-        <axId val="1657517104"/>
-      </barChart>
-      <catAx>
-        <axId val="511416656"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </txPr>
-        <crossAx val="1657517104"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="1657517104"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </txPr>
-        <crossAx val="511416656"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-  <spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor>
-    <from>
-      <col>12</col>
-      <colOff>441960</colOff>
-      <row>8</row>
-      <rowOff>179070</rowOff>
-    </from>
-    <to>
-      <col>20</col>
-      <colOff>137160</colOff>
-      <row>23</row>
-      <rowOff>179070</rowOff>
-    </to>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </twoCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,18 +416,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -780,35 +460,26 @@
           <t>Tarefas</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="1" t="n">
         <v>7</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -817,39 +488,29 @@
           <t>Técnicos atribuídos</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>11</v>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,9 @@
       <c r="H2" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="I2" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -489,7 +492,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>4</v>
@@ -498,16 +501,19 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -501,13 +501,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>3</v>
